--- a/simulation/results/simSet10Results/simSet10.xlsx
+++ b/simulation/results/simSet10Results/simSet10.xlsx
@@ -603,13 +603,13 @@
         <v>147</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>2.7</v>
